--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/28_Edirne_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/28_Edirne_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D0D3FDC-FE94-4849-B29B-21F4B6141DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A219E36D-8DBA-4435-9B90-B30ED08B0D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{E49850BE-811B-44A0-B981-2137BAA479B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{054D7C11-6CE7-4AB9-B29E-93E04377B5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,14 +955,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{111FB476-BF8C-4655-A477-CCBA33FEA787}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{16DBE6A9-9F38-4770-9FEA-DEB01DD055E5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{68F2DDED-F65A-400A-9591-A04DC54D9D15}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{48D353E0-AA7D-451C-AB63-1E682DBEEFF0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{65261E2E-5338-41DC-8B2D-DB8007A92195}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9CB2CB92-124A-44EB-A405-529B3E31D8DF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4553E793-7E43-47BA-8E4C-5DFB22B70B4F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{36C72745-3FF3-40C6-8893-66F692C30CE4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1A9F4C05-6FAD-495F-BBF4-74D385229EB2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9639D9C8-603A-481E-9B93-8FA202EF2EFB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{616258D8-9D33-4DE0-A64F-22F411FACA44}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{386E9301-F377-4C4B-975E-AF865686DA9B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A9113F50-9A47-41BB-A218-474AFC7A58A2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3DE08A7B-DEFD-4ADD-8F31-40BC2ECDE029}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{C032B7C1-8C2D-4C18-BF15-AC0654F5C3A7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2CB6BA08-A82A-4736-BD83-8CABD22CA1B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D311738B-BB64-469A-A682-5612F472DBD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B799E1D-1147-4712-A637-7A17125B27C9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2615,18 +2615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAF47DBC-CD92-4688-8D8C-15C6E0440660}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CF3DE9E-9E85-47A6-961F-D3F1D1FA3CD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FD90B57-61C8-46C7-A81D-23E95CE10B7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E5941C2-9AA7-43DF-8F21-240B0A189FF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DDC0909-3DB9-46CD-AF19-FDDE79B95CB9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44302F54-8B5C-46CB-B76D-8B1A2F4CA930}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4523AB42-1679-470B-AEF6-D4DFA42EA609}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D99B1426-FE4E-4479-BB39-2F56E576D3F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AA5A81E-BDC2-4A45-B20C-60F2A6E20124}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{77302BCC-127B-46C4-AAD0-71118E0217F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{277C3A2B-CC88-4C6E-92B9-F4BAD4F42380}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57BCE0ED-353B-4BC2-96F4-63110373F386}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{014F7DC8-F88E-473A-AC8C-50D47F0E412B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66F147C2-88DD-4E13-BD98-10FF74A1CEE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{268C7AEE-6E9B-4B19-BDE7-EB5E7BEE7A31}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D90FA7A3-1CDC-4CCA-816F-BE16D25CD6F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC836FF2-4EF7-4FA6-B1DD-C1BD23B45CB5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC5A8E7F-D1E9-411F-A2A8-D7BBAD083665}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D4CAB77-84CE-4674-B99D-CD2E34597531}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F13E6A89-FF7C-4DEA-B8E8-5148313D4AF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3781A138-2528-4039-991C-BDAB6A463CE2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EED23A12-0CA1-4728-9144-FA407921020B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{037E541B-CC64-4485-8AD9-A17196E386F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{474C5797-9BBC-4205-B732-F990462C1835}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79368B0A-1EC9-42A5-A660-B4C6EA3033A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD8B1A7-C712-416F-8CAE-16B381319DC5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3907,18 +3907,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF762987-50B0-4B72-ACFA-55A6B1FF53B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F95FAF02-0059-411A-982C-EF210AD6816A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41529269-2DBB-4952-8A52-DE9167366531}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15F15FE0-70FF-4DDB-894C-2F97BB712D72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{88FEF0A2-290D-40A1-81FE-A77C0A63F752}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AA9CB311-F0DA-4774-91F4-784D1361AED2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2507954-8A93-4C2B-A47B-36F57B5E9D29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D278B46-EEEE-4D0A-A25A-600CA47E6047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9C5523C-1339-4C29-971E-0B58FE94D633}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9B984119-8528-462A-A675-0F4A837A831B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84B62D24-63F1-43BC-A7FA-EE1DA0CCE0E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7637224-B5BE-4D58-AF47-CF6973D43532}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6E365A9-6C62-47E8-B05C-F2C51595DD37}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C8E559A-C2A0-4474-951A-BE4B51AB4481}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0529D372-12FB-4411-9F58-41CAC5246C18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9370B67E-F0F4-4913-A5D0-534E680DC523}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCBFED45-7478-4CD2-A108-8178027D8204}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3AD9F894-5613-48E6-A333-D5C0DB24D0DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB42724F-438E-47E8-AE3E-D65391882B89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFB5582C-84EC-4E2D-A663-012F0E4ED8A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{925B6CE4-FC45-41DA-9AC3-3B6E91FF41DE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{59474675-891E-403D-B717-B93CD1680A27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68BEA32B-25E0-4EF3-A6F9-CFD19F633ABC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DAAE38B-B9F5-4F79-8C00-2CC170750DF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3931,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B2941D-6FDF-4893-829B-CF9A67E8BB96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CDBE29-84F2-498D-83ED-6BFA5A3CC779}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5199,18 +5199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8C47B54-9324-41DD-9507-EB3AF9A9EA01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3D56687-9984-4C93-B944-717BD2602B32}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AABC3B30-E306-496D-A7C4-0546B9B0669D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09E69422-3368-4866-9F93-7774B17D1CEC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B027A432-CF9B-4EF2-8AFF-CD6F883B6EEB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65D71B32-157A-4ADD-A8B4-0D20C50356C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEF8D0B9-518E-4150-9333-28C9D51B20E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D05EE19-2E11-4447-A47D-3DEB922210B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE34EA23-2E33-402C-9619-6D323C353457}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D60733EA-68CB-4847-883D-F5D505A85667}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFAF5059-2745-43CC-B9C2-28450D5E9A57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87729D76-B1EF-4007-84F2-1FBDCBDB48BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA9D9A50-C523-41F2-9D84-37A77A08F9DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF25A171-7463-436F-B465-BF4620AA7C60}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{904E3DD1-2AB9-4F79-80B6-9F022E2C3375}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07D0D416-1B1C-4955-99B0-0D88BA4990FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6AC87AE-5985-4531-9FE0-A7110673282F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B8B45B9-C650-4626-BB71-81EA8AB294B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C26BE73F-A7F1-4BE1-B80F-CE10D74715D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F05181F6-157E-44E7-A11E-FF31D066AFCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{750E820F-DB2E-4E8B-A77F-93DC88701A78}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F798E090-1E38-4649-99D8-92B5CF4D099F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA38094F-6310-4EE3-B318-58A44C9AD0B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7868B815-04A1-460F-B666-8B7AA6D75468}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5223,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2342C084-E375-4F5C-9158-67EDC1D95142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F794FA7-FD5B-436F-BDCC-A2688041D467}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6491,18 +6491,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D41A939A-63E3-4471-999C-A6D60FB45412}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{608BE9B6-DEE7-4DF3-9961-61344CAF6F16}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED136ACE-B703-47A0-AFA9-2424DE506666}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A980DA98-6968-4731-8CBD-3721340C0EE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A2B41BE-88FB-4DF5-B742-91B496B2AB42}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2F9B99C8-69AB-4E22-8744-845E1F88F805}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3353FFFF-253C-4F51-BA45-1DD165C834FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69907F54-8ADB-4D3B-B59C-BFC6B1C5F539}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C15E6EFD-C6E7-424F-8336-6C0881D4EB3D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C301AB63-8EE5-4A36-99D2-77E9F1787279}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80AC1C1A-55F0-4ACC-BE50-BE7B56ED61D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8F3D444-955B-448F-9713-A6C9AEC1B256}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{342A27DB-13B8-4659-831B-F4BD192E5DDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBEE64A4-1DAB-4A2A-B5AA-0AAAC85DDACE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2D6CF4F-B747-4BC6-8878-F44BCB28ED43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4AC8842-253F-4EF3-A230-22C3E0CA206F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{332B1412-45B9-4EF5-8256-4EF154CF2A48}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C7C53759-84A4-4E3B-B145-E71FAF5FD965}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10B04AFA-44E2-4276-96EE-48AC5FDEFE7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C25DEA09-8E5C-4AFA-B934-6C7A711E44BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12E2E47B-A655-420A-8333-EC72591543DF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A2C9C0D-B316-4B48-9F14-C37B29141B66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{505606BC-ABC2-4994-A63F-AD468927FECC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAE4FD84-45E6-460F-AF41-2C5EF3191BCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6515,7 +6515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFB344D-9F23-4C0C-9AAD-E50B561A67BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F475FC-6D58-4D61-94A3-04A315782AED}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7800,18 +7800,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFDEB679-CACF-4ED3-B4CC-4533B45716E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8CABD3E-45DA-43E7-93AC-24414B9D1C68}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B0E86AA-4456-48D9-B41B-32F62293B44D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87E352CA-DA2E-4646-84BA-C62141B91E10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{268042D8-AC60-4838-8CF9-E0C04041E547}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09F92DE6-0B67-434A-BE91-B5D34D12962E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F84C1BF-2184-4004-A64E-BF994FCE982D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CE8DF1D-074D-4CF3-AA79-8C5F13FF9089}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78AB8AFE-6554-4930-970D-3A726D65CFDE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{961C2F95-7F10-42C4-B23E-DF21B6472E61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CECB2E3F-DEFD-40A2-9CC7-4344B221CBB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7BFB154-17EB-478C-9983-CFA4AC3D9BE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1985427D-4B26-40A2-AC7F-EFB4658B8FC0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AACE104-DF6F-4BFC-B6E9-3B2BC4D83BA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B202817-8EE9-4D35-942F-F72789AD1C20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B1CB26B-CD7C-41C0-90EE-A8AC9A1E8DE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D6C2CA4-8D8A-4760-ADB5-612DF259D690}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8ACD7118-E5E2-4DC1-9600-23ED714CB5E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF9B939C-BB80-44F7-9B15-EC396A38588A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3531D01-D0D2-4533-84FB-227CF5885AFD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38C0621C-416A-4594-8A4E-9664DA9506C6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{448CF3EA-8DF1-4794-A90D-9D316D28DB5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7DC16AF-DD21-440E-BAC1-9B80097B6AD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AED6CA53-A5AF-48AE-B77E-A54FC0AA24F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7824,7 +7824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457E17CB-5BD2-48A0-9371-EAC19D4C6CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4938FB-F164-4C6C-9CC2-850A72E2BD1A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9109,18 +9109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECBF64BB-52A4-4229-88D9-E60EEE5BA2B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CF95818-793E-40CF-AE01-0723F40F43A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DDA83A77-6515-4140-A7CB-6566CEF37A53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69728626-A693-4345-A53D-D9494D791F9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{401C0F25-49DF-4117-B449-A54E3316C30A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB37DF9D-730B-4F8E-B014-2665CD2698B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B0C0AC8-FD92-4500-B9E2-20913254B53C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4253FD9-50C4-46C2-A04A-E2866F367414}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32AAB9E3-8848-4A51-BD7C-EDF49D6A3A7C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{588DF746-3A9E-4E70-9D1F-EE9720FB6F0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E145DE7-55A4-4837-B255-A350FDC666DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BA80B3D-D82A-466C-BEF1-D16D7CFCC4C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4903F711-9D47-49BB-9213-26735943D6D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EACA1DE-BE4F-4BD4-B0DF-8818D988B647}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86CE1903-A3D4-42C2-A72C-89EB33B6C76A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D66678BA-A6C0-424E-B784-43143976C7F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C3242F9-58C6-4864-ABD9-998097530110}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4DAC6763-D98B-47F3-816F-04033AFD88F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58FB548C-255D-4A9B-A14A-9ADF80B6E54A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C82BDBA-7C46-4753-A52D-AE12319A7818}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D7DC0CB-1CE7-45B6-B748-A0CD25ABDE72}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{313C2F3A-67E1-4FEE-8658-3A207B5B7933}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E9DA6FE-1B68-4994-A953-687417DAB5BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{493319EF-C9A7-4A66-AFEE-CAEB01F2426D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9133,7 +9133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC35C46-D720-4024-BCEC-67FE078F934B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FDD84-A384-4E79-8DC8-ACBB50ACE1A3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10418,18 +10418,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D0CE303-E4D1-4DED-BDE1-0D5F81E901E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FED8D72D-6D93-480C-A64B-8B966D7CA26F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F410734-2A20-47FE-B3E0-A4630CFE8F5B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB70EBBA-E256-44FD-BE10-61BBE01C5FFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7213A08C-DA9E-4255-A15D-2E0B9356770D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{01C7AF37-BC75-4319-BFEB-5081A3ED50CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C834E3A7-9E55-4829-B3CB-09FA4C8C7F65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D455149C-7E54-4943-83F4-B9C77662543E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52721F11-D728-4B55-8997-70EA4E71A74A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C213FBF7-1C81-4C2D-8895-38603EA214CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{290BEF9B-D4B4-42A9-AE08-F580B9B01743}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60784096-3821-45C4-A1E4-82154AA7C587}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD73148D-998A-48E7-8421-AE99B9DCFCDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D56D868-D5DD-42BB-ABB3-E998C8AD2C68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3592E3D-5E50-47FC-AC96-76077FEF531E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F358900-1258-4655-9B0C-0D44D5F49250}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A793A22C-8677-460C-B67D-759207B70788}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9695205B-A0AA-447D-9DF4-F7E8A471D4D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1E8CBE3-19EE-4E10-B9DC-D70FFCD935DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63FE8898-D35A-4F59-9D6B-CC51927EB616}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46B0C3CF-91D8-41C8-926B-7D95F3A88153}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C5552DB9-8EED-4249-82A6-A9826903CF59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8225F26B-392A-4C30-9E47-295891B57E3F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEAA9FB0-5105-4FFC-88C3-0946985AFFC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10442,7 +10442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6BB663-3552-46B0-B6AA-AD9F5E4A3A66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39920D8-B970-4EEF-B8F5-D8F5B14959E0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11727,18 +11727,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22A03412-0014-4911-9D47-A7C5853B7FAC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6685332B-B3F8-44D6-96A7-536E06829476}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{655A745D-77D5-4108-BB68-F9EC43E52DF3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C8F22E9-0499-4808-8536-66EDA6DD7892}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47072261-20ED-45EA-8CA1-D2A8F8FADD69}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3368C03D-8724-4878-8CB2-9BBE660482CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3D67368-126A-4AC0-BE16-E8C989F9B895}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC76D49F-43D8-4BEB-AA17-D8F0D64E6475}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6510898-321B-409D-9204-1767590E2906}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C189ECAF-30E4-4DBC-BB30-611B7E888EB8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCE86B0C-C94A-4AA8-B0BB-AD442E0E90C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17CD86CA-EAAC-4E8A-913A-6FCC173EBF60}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DD78110-525E-4BB2-8CB4-ED50F21B4FC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDADD348-5CF1-45A4-B850-4068043067AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92B8379A-3C82-40A4-A341-FA9EF7367E23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23488B44-7DE5-41FA-B4FA-4938289116A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AED34A23-8145-47E5-9201-B9BAB812131C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B75CB556-EB88-4E14-8C7E-4E36FFE97397}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC43F429-28E6-44C0-B3A9-5FE860A9B8AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBF22069-921C-4B0B-95F4-0A18E0D3EA97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB53FF70-E801-478E-BC20-60B2FB1D4F50}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{13D54B89-B710-41D4-A88A-F3CE2BE7FC13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3567708-8053-4DA9-9207-3886C663DB4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7FBE4D9-89C2-4F84-B772-6EF19D5C8339}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11751,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEADD5F-DDF5-495C-B555-0A93EB9173E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60168A3-8791-4035-B50C-18450324E117}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13037,18 +13037,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FCC4C86-E985-4073-B74D-A1AD3D30EFB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F20EDBF-B20B-4943-B884-BB7A1859DC02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B958AA6-2C2B-42A8-877A-00533A615D8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{783B393B-42D0-4AE4-BAE9-04CDEEFD70CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EE9A876-EA19-465B-A9AC-E6E4B81D730A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9044F7B3-19A3-4162-B108-3513DBE47AA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{384F3FBD-976F-45A3-B7D8-36457F77761B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66E2D5B8-F7A2-4CE3-903B-41B37331DBFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3176444A-5436-40E9-ABC0-5951D4B4FBCA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7D800003-F822-46F9-9628-7192DE394890}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47903A49-CD8A-4787-BC35-D426AFF0BA36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{250A5AAC-DFFA-4833-AF91-BFEFE8D26F42}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1775AFC-CA31-40B7-96D7-1CFABEFEF574}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B143A536-9CBA-4774-ADD2-408912965F5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F5AA4AB2-565F-4728-BA27-DC81305ABA28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87A13BF6-9820-43DF-98A3-D23DEED282EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63C2F8EF-FFA9-474C-AD1F-8CDD082740CF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{156D89BF-BAB7-4E06-B192-29E0CC1A8CE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19AA3BA2-1EBE-4F04-B329-485723AF9B0A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3A44CEA-60DE-4843-8A43-529E4AD0D934}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA16B334-52CF-4B15-85C4-AAED5AAB042A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B92E83B4-7A1C-41D8-B253-A7AC001C021B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C17A6FC9-EBA0-4D9C-91D1-AAF627121CB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E02B8FF7-241A-43AE-8716-E8532FBDED7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13061,7 +13061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3925559-2D2D-4D15-9F4B-10C3C244E2E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08498926-9951-4D56-83F9-2C9D4D3E5E62}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14333,18 +14333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2D4ECB3-7B8C-486F-9E61-C73185C8E07C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{000787E3-78B6-4E64-BAB7-2C6F745DE165}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C6297D0-1BDC-4D1E-AAEF-413AF6AF8258}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{860E4EF4-7295-475C-9FDD-FEE582DD40E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB67A3EA-DDF1-43A5-852A-EE1BD85E2A0B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B8A08D98-3E1A-4D6C-8C05-8168184382AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08AC6C49-66B5-422A-B672-4B3EF7199680}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4D88723-7740-46A2-9407-48109441CD13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{656E3002-E12B-403F-92ED-513EDEEE08D0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2BF378D5-4BC7-4D9D-9349-58D5F7940E25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01A47E6F-5E31-4BE9-A516-1D3067230B8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C87D539B-6E31-47FC-B6B8-32EE79693E5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A07CE01-E196-4923-A15A-3450E15A323D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{723F9F1C-C2E1-4D94-81D1-56BBD5ED92BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E06A2EEF-76D4-44F7-94DC-3A8971767C41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{127DC21D-CFEF-45CA-8105-B90CC2758BF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF4924C8-2764-405D-9E8D-4439BCE67BAC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B70E37E-1B8C-4C1B-915B-003E5C407DF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C230290-3B83-48D6-9D46-E097D4DB1193}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E50FC42-8181-4689-AD8C-10CA525C1BC4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA0BDAF2-1C0E-4CAF-9E6D-33ED8AECAB42}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4D671BE-D851-4422-98B8-27CE66496ADA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D89C3D7-EA41-46C3-AD20-6DE312C7ECC4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{469A2CDD-78ED-4796-A655-65B9E3868B65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14357,7 +14357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C830A560-A9A4-4F4B-83D2-8E4B127C06DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AB364F-3F1F-496A-B417-DDA1F5857469}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15629,18 +15629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{776B6B69-1DEC-4A67-BA6E-C08C5890866E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDEF09D2-6FAF-4AF8-9082-4E38032AC64F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E18B6E7E-A531-42ED-B7B2-EBB5AB9AD0A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC080F7F-A05F-4457-9807-EAF270AC3825}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21F2F94E-8067-4BCB-A18F-C2506C0AAE4A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36CDF7A2-4E48-4490-9FC0-55B5C4C28154}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFEDBD32-AE7C-45E0-8154-A7E745E66C48}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{395E4403-D236-4144-B6A2-F3B74D336850}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1687AD53-547A-4FD9-8420-79326AAD1045}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DDCE7751-F772-4475-BEC6-9C0AB5098B8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E79E8ACA-BC52-4F44-AD90-0DD23E078106}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35D1C67C-F633-4C03-A8BD-AE23CCFC6496}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F906F506-F1FC-45D6-AD8E-4F588529F388}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{965D4FD7-94BA-4A14-AB21-F480AE794108}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EFFA4B19-394B-4CB6-A74F-7080733CDE69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A490E6A4-54BE-44A3-967A-65DB64580711}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4048E6B8-2761-493B-B709-5C76933BF835}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7183F6C2-2C82-4319-964B-82DB45E5D07A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3106BAA-7652-43FC-A485-343EDA67BC31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8B314CE-8ADD-4AA2-B5E2-94D6557B84FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8687CD38-79D3-4AAE-A24A-CDC00B5DD127}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB48C54B-0122-4C28-B0D6-4FA8EFB60098}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04C39DFC-E303-449D-996D-BA1ACA49BFCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7024FBB-7DE3-41FB-B283-1A7FFEF88FBD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15653,7 +15653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA50027-F91F-468F-8CAD-D226CEBE3DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC94CC31-CDC8-4992-8C7C-844B680613C4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16921,18 +16921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBF6F9B9-FC8E-470A-BF1A-A75DA17369B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DE9C042-3509-4DD2-8DA4-BBF766EEF39A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6E4BFDA-7677-4D88-A9A6-7463DB1B316B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1532E06A-104B-4CFB-B9EA-22355F0961EA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1724513E-93A7-41F0-940C-0A71B960AA53}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{77F9603F-C128-4179-BC58-506E4B522BAA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B37458B-4240-40B6-80A1-EA0F8C4E2FBB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7077C69D-9BAF-4C14-B955-80807FF7A663}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0069033-0779-4D36-88FB-11104AA47E3D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9B570E68-A4FF-4632-908D-35409B700DCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3561D9AF-CDA3-4291-89F3-7F0D881F404D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24646E9F-854A-4DAD-A4DE-3B96841C91D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1514E665-48F3-4BCD-971A-FF8B9D9B53B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDD725DF-F592-45A7-886E-3DFFA3D647E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E1D59A7-3299-4715-BEED-3F4AEE2A081D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94646D33-5B5A-4FE4-83E0-CB064C1BA288}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{098C8064-6D5D-41D6-A9A8-08B548E8B54A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{659654A7-2F4C-4999-B0D9-DA79658C19C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B2C752B-051B-4984-9E07-3ABF2D11C849}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC98646D-9944-45BB-800A-10ABE25E034B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DADC493-6AC2-42A0-8F5E-22C866613FD8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9D5A91FC-2F72-4184-8F0D-B27B056A6025}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C04FB756-4ECB-4E0C-AEEB-A11F9F6F7C81}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{888604DB-9028-4C4A-BC02-A62ADFB64F5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
